--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_32_0.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_32_0.xlsx
@@ -522,52 +522,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9992941197829098</v>
+        <v>0.999553892821285</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9986686455938791</v>
+        <v>0.9987923230025857</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9991266796318312</v>
+        <v>0.9994249752317979</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9975180245940678</v>
+        <v>0.9990978917071697</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9985157801364817</v>
+        <v>0.9993659634689266</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0006589081980931638</v>
+        <v>0.0004164214694884111</v>
       </c>
       <c r="H2" t="n">
-        <v>0.001242760898409541</v>
+        <v>0.001127313466192807</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0006842713433747837</v>
+        <v>0.0005296153165461597</v>
       </c>
       <c r="J2" t="n">
-        <v>0.001305227058565522</v>
+        <v>0.0004046238335067723</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0009947473463708543</v>
+        <v>0.000467119575026466</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002929821951858635</v>
+        <v>0.002284241530530065</v>
       </c>
       <c r="M2" t="n">
-        <v>0.02566920719642825</v>
+        <v>0.02040640755959782</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000677645008407</v>
+        <v>1.000428262891566</v>
       </c>
       <c r="O2" t="n">
-        <v>0.02676199848936442</v>
+        <v>0.02127515057649701</v>
       </c>
       <c r="P2" t="n">
-        <v>112.6498526760636</v>
+        <v>113.5676253255644</v>
       </c>
       <c r="Q2" t="n">
-        <v>172.3747680946054</v>
+        <v>173.2925407441062</v>
       </c>
     </row>
     <row r="3">
@@ -577,52 +577,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9991652999556608</v>
+        <v>0.999453086411392</v>
       </c>
       <c r="C3" t="n">
-        <v>0.998558517522996</v>
+        <v>0.998710325388367</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9990022166663848</v>
+        <v>0.9993005493887686</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9972234561099232</v>
+        <v>0.9989151211910833</v>
       </c>
       <c r="F3" t="n">
-        <v>0.998327458394581</v>
+        <v>0.9992325451258243</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0007791558522931899</v>
+        <v>0.0005105198282336308</v>
       </c>
       <c r="H3" t="n">
-        <v>0.001345560618515418</v>
+        <v>0.001203854639786625</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0007817916161986581</v>
+        <v>0.0006442153057753549</v>
       </c>
       <c r="J3" t="n">
-        <v>0.001460135425178329</v>
+        <v>0.0004866021363986487</v>
       </c>
       <c r="K3" t="n">
-        <v>0.001120963520688494</v>
+        <v>0.0005654141001466934</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003206145576586122</v>
+        <v>0.002535515973609655</v>
       </c>
       <c r="M3" t="n">
-        <v>0.02791336332821951</v>
+        <v>0.02259468584056062</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000801312042566</v>
+        <v>1.000525037045064</v>
       </c>
       <c r="O3" t="n">
-        <v>0.02910169299372965</v>
+        <v>0.02355658839424091</v>
       </c>
       <c r="P3" t="n">
-        <v>112.3145989299513</v>
+        <v>113.1601621606072</v>
       </c>
       <c r="Q3" t="n">
-        <v>172.0395143484932</v>
+        <v>172.885077579149</v>
       </c>
     </row>
     <row r="4">
@@ -632,52 +632,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9990078073085182</v>
+        <v>0.9993281570709349</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9984217894475853</v>
+        <v>0.9986064063382794</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9988494134668821</v>
+        <v>0.999143590483743</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9968754310954733</v>
+        <v>0.9986903227467638</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9981016013328149</v>
+        <v>0.9990660124418765</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0009261683252725778</v>
+        <v>0.0006271358837860569</v>
       </c>
       <c r="H4" t="n">
-        <v>0.001473190275242344</v>
+        <v>0.001300858511524403</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0009015172683266694</v>
+        <v>0.0007887792354818468</v>
       </c>
       <c r="J4" t="n">
-        <v>0.001643155637559155</v>
+        <v>0.0005874312818901642</v>
       </c>
       <c r="K4" t="n">
-        <v>0.001272336452942912</v>
+        <v>0.0006881052586860055</v>
       </c>
       <c r="L4" t="n">
-        <v>0.00351323056050814</v>
+        <v>0.002814716587100233</v>
       </c>
       <c r="M4" t="n">
-        <v>0.03043301373956542</v>
+        <v>0.02504268124195285</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000952504983823</v>
+        <v>1.000644969211902</v>
       </c>
       <c r="O4" t="n">
-        <v>0.03172861013948194</v>
+        <v>0.02610880002791947</v>
       </c>
       <c r="P4" t="n">
-        <v>111.9689091261705</v>
+        <v>112.7486946405199</v>
       </c>
       <c r="Q4" t="n">
-        <v>171.6938245447123</v>
+        <v>172.4736100590617</v>
       </c>
     </row>
     <row r="5">
@@ -687,52 +687,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9988150690681349</v>
+        <v>0.9991733661910619</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9982521916682321</v>
+        <v>0.99847508550044</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9986619095014037</v>
+        <v>0.9989460572178943</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9964627985608446</v>
+        <v>0.9984135817721597</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9978301158823722</v>
+        <v>0.9988583056118128</v>
       </c>
       <c r="G5" t="n">
-        <v>0.001106081012439467</v>
+        <v>0.0007716263756131481</v>
       </c>
       <c r="H5" t="n">
-        <v>0.001631502357786413</v>
+        <v>0.001423440749328842</v>
       </c>
       <c r="I5" t="n">
-        <v>0.001048431957394354</v>
+        <v>0.0009707133866801323</v>
       </c>
       <c r="J5" t="n">
-        <v>0.001860151804464974</v>
+        <v>0.0007115582796383166</v>
       </c>
       <c r="K5" t="n">
-        <v>0.001454290244321207</v>
+        <v>0.0008411310252380936</v>
       </c>
       <c r="L5" t="n">
-        <v>0.003854462029248794</v>
+        <v>0.003125004158075498</v>
       </c>
       <c r="M5" t="n">
-        <v>0.03325779626552949</v>
+        <v>0.02777816364724544</v>
       </c>
       <c r="N5" t="n">
-        <v>1.00113753369459</v>
+        <v>1.000793568456581</v>
       </c>
       <c r="O5" t="n">
-        <v>0.03467364950568225</v>
+        <v>0.02896073758243459</v>
       </c>
       <c r="P5" t="n">
-        <v>111.6138642608551</v>
+        <v>112.334020189007</v>
       </c>
       <c r="Q5" t="n">
-        <v>171.3387796793969</v>
+        <v>172.0589356075488</v>
       </c>
     </row>
     <row r="6">
@@ -742,52 +742,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9985789355454029</v>
+        <v>0.9989816482589605</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9980418056810632</v>
+        <v>0.9983096081084998</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9984313576490048</v>
+        <v>0.9986980235917675</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9959719943552889</v>
+        <v>0.998072766543651</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9975027940048257</v>
+        <v>0.9985995149586674</v>
       </c>
       <c r="G6" t="n">
-        <v>0.001326501290846119</v>
+        <v>0.0009505866497851266</v>
       </c>
       <c r="H6" t="n">
-        <v>0.001827888441931095</v>
+        <v>0.001577906631087028</v>
       </c>
       <c r="I6" t="n">
-        <v>0.001229075890031943</v>
+        <v>0.001199159907037785</v>
       </c>
       <c r="J6" t="n">
-        <v>0.002118257073364058</v>
+        <v>0.0008644245877885578</v>
       </c>
       <c r="K6" t="n">
-        <v>0.001673666481698</v>
+        <v>0.001031792247413171</v>
       </c>
       <c r="L6" t="n">
-        <v>0.004233815271794145</v>
+        <v>0.003469825687444357</v>
       </c>
       <c r="M6" t="n">
-        <v>0.03642116542405143</v>
+        <v>0.03083158526227814</v>
       </c>
       <c r="N6" t="n">
-        <v>1.001364221876413</v>
+        <v>1.000977617671398</v>
       </c>
       <c r="O6" t="n">
-        <v>0.03797168983835937</v>
+        <v>0.03214414967707334</v>
       </c>
       <c r="P6" t="n">
-        <v>111.2504208225302</v>
+        <v>111.9168624757417</v>
       </c>
       <c r="Q6" t="n">
-        <v>170.9753362410721</v>
+        <v>171.6417778942835</v>
       </c>
     </row>
     <row r="7">
@@ -797,52 +797,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9982896622763379</v>
+        <v>0.9987442771853451</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9977814301293573</v>
+        <v>0.9981015915476854</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9981486879842092</v>
+        <v>0.9983871901046794</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9953868838268348</v>
+        <v>0.9976530577436027</v>
       </c>
       <c r="F7" t="n">
-        <v>0.997108016047526</v>
+        <v>0.9982774512235284</v>
       </c>
       <c r="G7" t="n">
-        <v>0.001596525189889282</v>
+        <v>0.001172162127619259</v>
       </c>
       <c r="H7" t="n">
-        <v>0.002070937590282758</v>
+        <v>0.001772080959735457</v>
       </c>
       <c r="I7" t="n">
-        <v>0.001450555610774703</v>
+        <v>0.0014854470111081</v>
       </c>
       <c r="J7" t="n">
-        <v>0.002425956372948007</v>
+        <v>0.001052677134607815</v>
       </c>
       <c r="K7" t="n">
-        <v>0.001938252837858614</v>
+        <v>0.001269069230231277</v>
       </c>
       <c r="L7" t="n">
-        <v>0.004655059371249676</v>
+        <v>0.003852994337793778</v>
       </c>
       <c r="M7" t="n">
-        <v>0.03995654126534581</v>
+        <v>0.03423685335452514</v>
       </c>
       <c r="N7" t="n">
-        <v>1.001641924214716</v>
+        <v>1.001205493902069</v>
       </c>
       <c r="O7" t="n">
-        <v>0.04165757394845455</v>
+        <v>0.03569438708188401</v>
       </c>
       <c r="P7" t="n">
-        <v>110.8798515354766</v>
+        <v>111.4978105264969</v>
       </c>
       <c r="Q7" t="n">
-        <v>170.6047669540184</v>
+        <v>171.2227259450388</v>
       </c>
     </row>
     <row r="8">
@@ -852,52 +852,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.997934890315393</v>
+        <v>0.9984504439460775</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9974585615234934</v>
+        <v>0.9978406034173476</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9978005675312358</v>
+        <v>0.9979982766378281</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9946891387391378</v>
+        <v>0.9971357814096932</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9966307812718307</v>
+        <v>0.9978769055742404</v>
       </c>
       <c r="G8" t="n">
-        <v>0.001927689242742087</v>
+        <v>0.001446442558687019</v>
       </c>
       <c r="H8" t="n">
-        <v>0.002372321261562804</v>
+        <v>0.002015701923350951</v>
       </c>
       <c r="I8" t="n">
-        <v>0.001723317885301548</v>
+        <v>0.00184364815346843</v>
       </c>
       <c r="J8" t="n">
-        <v>0.002792888199212895</v>
+        <v>0.001284691777275716</v>
       </c>
       <c r="K8" t="n">
-        <v>0.002258103042257221</v>
+        <v>0.001564166916727915</v>
       </c>
       <c r="L8" t="n">
-        <v>0.005123380081191425</v>
+        <v>0.004278807125533427</v>
       </c>
       <c r="M8" t="n">
-        <v>0.04390545800628991</v>
+        <v>0.03803212535064297</v>
       </c>
       <c r="N8" t="n">
-        <v>1.001982505297223</v>
+        <v>1.001487573811766</v>
       </c>
       <c r="O8" t="n">
-        <v>0.04577460425044521</v>
+        <v>0.03965123166417268</v>
       </c>
       <c r="P8" t="n">
-        <v>110.5028665538705</v>
+        <v>111.0772962897765</v>
       </c>
       <c r="Q8" t="n">
-        <v>170.2277819724123</v>
+        <v>170.8022117083183</v>
       </c>
     </row>
     <row r="9">
@@ -907,52 +907,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9974996148741623</v>
+        <v>0.9980867646344604</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9970589210114031</v>
+        <v>0.9975137397956365</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9973725579390043</v>
+        <v>0.9975123469900897</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9938543218331649</v>
+        <v>0.9964982657472028</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9960530767749701</v>
+        <v>0.997379079636568</v>
       </c>
       <c r="G9" t="n">
-        <v>0.002333999760747271</v>
+        <v>0.001785921232404781</v>
       </c>
       <c r="H9" t="n">
-        <v>0.00274536813740808</v>
+        <v>0.002320814766563433</v>
       </c>
       <c r="I9" t="n">
-        <v>0.002058675572272365</v>
+        <v>0.002291204151813974</v>
       </c>
       <c r="J9" t="n">
-        <v>0.003231903675361253</v>
+        <v>0.001570637526059566</v>
       </c>
       <c r="K9" t="n">
-        <v>0.002645289623816809</v>
+        <v>0.00193093480634621</v>
       </c>
       <c r="L9" t="n">
-        <v>0.005643663081803339</v>
+        <v>0.004752047067871993</v>
       </c>
       <c r="M9" t="n">
-        <v>0.04831148684057727</v>
+        <v>0.04226016129175067</v>
       </c>
       <c r="N9" t="n">
-        <v>1.002400369720804</v>
+        <v>1.001836705950918</v>
       </c>
       <c r="O9" t="n">
-        <v>0.05036820685394523</v>
+        <v>0.04405926384853431</v>
       </c>
       <c r="P9" t="n">
-        <v>110.1203436952508</v>
+        <v>110.6556418005945</v>
       </c>
       <c r="Q9" t="n">
-        <v>169.8452591137926</v>
+        <v>170.3805572191363</v>
       </c>
     </row>
     <row r="10">
@@ -962,52 +962,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.996965134068915</v>
+        <v>0.9976367944952953</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9965643089547001</v>
+        <v>0.9971050136933549</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9968464295055268</v>
+        <v>0.9969059707356361</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9928513087798694</v>
+        <v>0.9957122480844993</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9953520351654356</v>
+        <v>0.9967608066149248</v>
       </c>
       <c r="G10" t="n">
-        <v>0.002832914131449803</v>
+        <v>0.002205948605909043</v>
       </c>
       <c r="H10" t="n">
-        <v>0.003207066781380365</v>
+        <v>0.002702342642040992</v>
       </c>
       <c r="I10" t="n">
-        <v>0.002470912161598879</v>
+        <v>0.002849695141606637</v>
       </c>
       <c r="J10" t="n">
-        <v>0.003759370536687382</v>
+        <v>0.001923191074690975</v>
       </c>
       <c r="K10" t="n">
-        <v>0.003115138665674424</v>
+        <v>0.002386440785838187</v>
       </c>
       <c r="L10" t="n">
-        <v>0.006221780811282372</v>
+        <v>0.005285438702348743</v>
       </c>
       <c r="M10" t="n">
-        <v>0.05322512688054208</v>
+        <v>0.04696752714279349</v>
       </c>
       <c r="N10" t="n">
-        <v>1.002913471293842</v>
+        <v>1.002268677284516</v>
       </c>
       <c r="O10" t="n">
-        <v>0.05549103072304846</v>
+        <v>0.04896703200944669</v>
       </c>
       <c r="P10" t="n">
-        <v>109.7328987374123</v>
+        <v>110.2331953116685</v>
       </c>
       <c r="Q10" t="n">
-        <v>169.4578141559541</v>
+        <v>169.9581107302103</v>
       </c>
     </row>
     <row r="11">
@@ -1017,52 +1017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.996309027569256</v>
+        <v>0.9970801312617052</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9959528350279185</v>
+        <v>0.9965946139671169</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9962005089529541</v>
+        <v>0.9961502824618701</v>
       </c>
       <c r="E11" t="n">
-        <v>0.991644972784859</v>
+        <v>0.9947432017917164</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9945011945926773</v>
+        <v>0.9959934630603069</v>
       </c>
       <c r="G11" t="n">
-        <v>0.003445360749134618</v>
+        <v>0.002725569299773436</v>
       </c>
       <c r="H11" t="n">
-        <v>0.003777850851427629</v>
+        <v>0.003178778382525491</v>
       </c>
       <c r="I11" t="n">
-        <v>0.002977009282806622</v>
+        <v>0.00354570704657585</v>
       </c>
       <c r="J11" t="n">
-        <v>0.004393761344366524</v>
+        <v>0.002357838698427109</v>
       </c>
       <c r="K11" t="n">
-        <v>0.003685385313586574</v>
+        <v>0.00295177287250148</v>
       </c>
       <c r="L11" t="n">
-        <v>0.006863557579769898</v>
+        <v>0.005881724788017732</v>
       </c>
       <c r="M11" t="n">
-        <v>0.05869719541114905</v>
+        <v>0.05220698516265267</v>
       </c>
       <c r="N11" t="n">
-        <v>1.003543333533514</v>
+        <v>1.002803073988763</v>
       </c>
       <c r="O11" t="n">
-        <v>0.06119605653974682</v>
+        <v>0.05442954460438459</v>
       </c>
       <c r="P11" t="n">
-        <v>109.341453326538</v>
+        <v>109.8101559106781</v>
       </c>
       <c r="Q11" t="n">
-        <v>169.0663687450798</v>
+        <v>169.53507132922</v>
       </c>
     </row>
     <row r="12">
@@ -1072,52 +1072,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9955029839911003</v>
+        <v>0.9963914991794733</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9951963066260228</v>
+        <v>0.9959579199929003</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9954047212623585</v>
+        <v>0.9952091717439616</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9901925657565624</v>
+        <v>0.9935476853262971</v>
       </c>
       <c r="F12" t="n">
-        <v>0.993466216109076</v>
+        <v>0.9950412991193759</v>
       </c>
       <c r="G12" t="n">
-        <v>0.00419776704811908</v>
+        <v>0.003368377121081984</v>
       </c>
       <c r="H12" t="n">
-        <v>0.004484036906838383</v>
+        <v>0.003773104259821332</v>
       </c>
       <c r="I12" t="n">
-        <v>0.003600531568479205</v>
+        <v>0.004412498667271459</v>
       </c>
       <c r="J12" t="n">
-        <v>0.005157556565242729</v>
+        <v>0.002894065290182224</v>
       </c>
       <c r="K12" t="n">
-        <v>0.004379044066860967</v>
+        <v>0.00365326938515547</v>
       </c>
       <c r="L12" t="n">
-        <v>0.007576833567596722</v>
+        <v>0.006544450407361494</v>
       </c>
       <c r="M12" t="n">
-        <v>0.06479017709590768</v>
+        <v>0.05803772153592855</v>
       </c>
       <c r="N12" t="n">
-        <v>1.004317135368544</v>
+        <v>1.003464160787706</v>
       </c>
       <c r="O12" t="n">
-        <v>0.06754842906903648</v>
+        <v>0.06050850749635905</v>
       </c>
       <c r="P12" t="n">
-        <v>108.9464051005626</v>
+        <v>109.3866484341055</v>
       </c>
       <c r="Q12" t="n">
-        <v>168.6713205191044</v>
+        <v>169.1115638526473</v>
       </c>
     </row>
     <row r="13">
@@ -1127,52 +1127,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.994512103348027</v>
+        <v>0.9955396515044621</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9942611523709154</v>
+        <v>0.9951644500872382</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9944269623185833</v>
+        <v>0.9940381452870112</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9884346156729865</v>
+        <v>0.9920724846248252</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9922049974877362</v>
+        <v>0.9938602503126861</v>
       </c>
       <c r="G13" t="n">
-        <v>0.005122710633794645</v>
+        <v>0.004163539533913671</v>
       </c>
       <c r="H13" t="n">
-        <v>0.005356962355453543</v>
+        <v>0.004513773587453347</v>
       </c>
       <c r="I13" t="n">
-        <v>0.00436663350579765</v>
+        <v>0.005491049682770885</v>
       </c>
       <c r="J13" t="n">
-        <v>0.006082031485987993</v>
+        <v>0.003555739024661195</v>
       </c>
       <c r="K13" t="n">
-        <v>0.005224332495892822</v>
+        <v>0.004523394353716039</v>
       </c>
       <c r="L13" t="n">
-        <v>0.008368999799482767</v>
+        <v>0.007281042843932355</v>
       </c>
       <c r="M13" t="n">
-        <v>0.07157311390315951</v>
+        <v>0.06452549522408697</v>
       </c>
       <c r="N13" t="n">
-        <v>1.005268380785894</v>
+        <v>1.004281934555716</v>
       </c>
       <c r="O13" t="n">
-        <v>0.07462012953878788</v>
+        <v>0.06727247914196535</v>
       </c>
       <c r="P13" t="n">
-        <v>108.5481431187228</v>
+        <v>108.9627794339555</v>
       </c>
       <c r="Q13" t="n">
-        <v>168.2730585372646</v>
+        <v>168.6876948524973</v>
       </c>
     </row>
     <row r="14">
@@ -1182,52 +1182,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9932939683094971</v>
+        <v>0.9944860102243652</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9931049442384139</v>
+        <v>0.9941764068688598</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9932231677711163</v>
+        <v>0.9925818599654919</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9863067106038537</v>
+        <v>0.9902508369035395</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9906664917666963</v>
+        <v>0.992395487425405</v>
       </c>
       <c r="G14" t="n">
-        <v>0.006259786222313785</v>
+        <v>0.005147067419377122</v>
       </c>
       <c r="H14" t="n">
-        <v>0.006436231895472232</v>
+        <v>0.005436068561724812</v>
       </c>
       <c r="I14" t="n">
-        <v>0.005309840766461566</v>
+        <v>0.006832332796452098</v>
       </c>
       <c r="J14" t="n">
-        <v>0.007201059203850384</v>
+        <v>0.004372805102141703</v>
       </c>
       <c r="K14" t="n">
-        <v>0.006255463072297371</v>
+        <v>0.005602542610777752</v>
       </c>
       <c r="L14" t="n">
-        <v>0.009249232749068081</v>
+        <v>0.008099779160619191</v>
       </c>
       <c r="M14" t="n">
-        <v>0.07911881079941599</v>
+        <v>0.07174306530513679</v>
       </c>
       <c r="N14" t="n">
-        <v>1.006437790422883</v>
+        <v>1.005293430184609</v>
       </c>
       <c r="O14" t="n">
-        <v>0.08248706237366393</v>
+        <v>0.07479731612379524</v>
       </c>
       <c r="P14" t="n">
-        <v>108.1472184884868</v>
+        <v>108.5386563192515</v>
       </c>
       <c r="Q14" t="n">
-        <v>167.8721339070286</v>
+        <v>168.2635717377934</v>
       </c>
     </row>
     <row r="15">
@@ -1237,52 +1237,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9917956175379904</v>
+        <v>0.9931829405225415</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9916755526466873</v>
+        <v>0.9929471639942943</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9917405625664631</v>
+        <v>0.990772588458917</v>
       </c>
       <c r="E15" t="n">
-        <v>0.98372657495815</v>
+        <v>0.9880021605046041</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9887876300543352</v>
+        <v>0.9905800223437646</v>
       </c>
       <c r="G15" t="n">
-        <v>0.007658430897517868</v>
+        <v>0.006363425787880272</v>
       </c>
       <c r="H15" t="n">
-        <v>0.007770506203309717</v>
+        <v>0.006583512827605636</v>
       </c>
       <c r="I15" t="n">
-        <v>0.00647150410566633</v>
+        <v>0.00849872693225349</v>
       </c>
       <c r="J15" t="n">
-        <v>0.008557906999961829</v>
+        <v>0.005381406920886594</v>
       </c>
       <c r="K15" t="n">
-        <v>0.007514705552814079</v>
+        <v>0.006940066926570041</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0102273655627666</v>
+        <v>0.009009747376692079</v>
       </c>
       <c r="M15" t="n">
-        <v>0.08751246138418156</v>
+        <v>0.07977108365742734</v>
       </c>
       <c r="N15" t="n">
-        <v>1.007876207163529</v>
+        <v>1.00654437709836</v>
       </c>
       <c r="O15" t="n">
-        <v>0.09123804804107501</v>
+        <v>0.08316710383763178</v>
       </c>
       <c r="P15" t="n">
-        <v>107.7438963197581</v>
+        <v>108.1143768015092</v>
       </c>
       <c r="Q15" t="n">
-        <v>167.4688117382999</v>
+        <v>167.839292220051</v>
       </c>
     </row>
     <row r="16">
@@ -1292,52 +1292,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9899525257692864</v>
+        <v>0.9915714033503386</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9899093405295827</v>
+        <v>0.9914187812232309</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9899168346032952</v>
+        <v>0.9885255284242273</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9805897088318116</v>
+        <v>0.9852253278686038</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9864909324492945</v>
+        <v>0.9883301711908523</v>
       </c>
       <c r="G16" t="n">
-        <v>0.009378876161224603</v>
+        <v>0.00786772499982541</v>
       </c>
       <c r="H16" t="n">
-        <v>0.009419187686875115</v>
+        <v>0.008010191056143326</v>
       </c>
       <c r="I16" t="n">
-        <v>0.007900446826793778</v>
+        <v>0.01056833762970452</v>
       </c>
       <c r="J16" t="n">
-        <v>0.01020752952942303</v>
+        <v>0.006626903359745419</v>
       </c>
       <c r="K16" t="n">
-        <v>0.009053988178108402</v>
+        <v>0.00859762049472497</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01131405916313877</v>
+        <v>0.01002117643666777</v>
       </c>
       <c r="M16" t="n">
-        <v>0.09684459799712425</v>
+        <v>0.08870019729304671</v>
       </c>
       <c r="N16" t="n">
-        <v>1.009645575261485</v>
+        <v>1.008091452783675</v>
       </c>
       <c r="O16" t="n">
-        <v>0.1009674730298166</v>
+        <v>0.0924763483265328</v>
       </c>
       <c r="P16" t="n">
-        <v>107.3385906707565</v>
+        <v>107.6899726615829</v>
       </c>
       <c r="Q16" t="n">
-        <v>167.0635060892983</v>
+        <v>167.4148880801247</v>
       </c>
     </row>
     <row r="17">
@@ -1347,52 +1347,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9876882143417377</v>
+        <v>0.9895782805764368</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9877313412745525</v>
+        <v>0.9895194137852275</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9876807149472275</v>
+        <v>0.9857359469395117</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9767735345761746</v>
+        <v>0.9817941993835504</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9836866692589356</v>
+        <v>0.9855420352927743</v>
       </c>
       <c r="G17" t="n">
-        <v>0.01149251148705684</v>
+        <v>0.009728217621284299</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0114522543883277</v>
+        <v>0.009783167186924787</v>
       </c>
       <c r="I17" t="n">
-        <v>0.009652510166633866</v>
+        <v>0.01313762709818793</v>
       </c>
       <c r="J17" t="n">
-        <v>0.01221438821414392</v>
+        <v>0.00816587198680559</v>
       </c>
       <c r="K17" t="n">
-        <v>0.01093344919038889</v>
+        <v>0.01065174954249676</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01251910263130225</v>
+        <v>0.01114549578226549</v>
       </c>
       <c r="M17" t="n">
-        <v>0.1072031318901498</v>
+        <v>0.09863172725489654</v>
       </c>
       <c r="N17" t="n">
-        <v>1.011819314231932</v>
+        <v>1.010004850646621</v>
       </c>
       <c r="O17" t="n">
-        <v>0.1117669911557894</v>
+        <v>0.1028306840799598</v>
       </c>
       <c r="P17" t="n">
-        <v>106.932119261516</v>
+        <v>107.2654491667991</v>
       </c>
       <c r="Q17" t="n">
-        <v>166.6570346800578</v>
+        <v>166.9903645853409</v>
       </c>
     </row>
     <row r="18">
@@ -1402,52 +1402,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.984901347771197</v>
+        <v>0.9871132236920596</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9850385128577613</v>
+        <v>0.9871600934461886</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9849150211139815</v>
+        <v>0.9822745600897531</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9721371254037801</v>
+        <v>0.9775548731747006</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9802510267009849</v>
+        <v>0.9820879674661601</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01409392910135231</v>
+        <v>0.01202924001935891</v>
       </c>
       <c r="H18" t="n">
-        <v>0.01396589151389588</v>
+        <v>0.01198548916122381</v>
       </c>
       <c r="I18" t="n">
-        <v>0.01181950993397791</v>
+        <v>0.01632566975912463</v>
       </c>
       <c r="J18" t="n">
-        <v>0.01465259396425999</v>
+        <v>0.01006734261482617</v>
       </c>
       <c r="K18" t="n">
-        <v>0.01323607052136799</v>
+        <v>0.01319649675532559</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01385960182103466</v>
+        <v>0.01239534412157431</v>
       </c>
       <c r="M18" t="n">
-        <v>0.1187178550233802</v>
+        <v>0.1096778921175954</v>
       </c>
       <c r="N18" t="n">
-        <v>1.014494706139651</v>
+        <v>1.012371305255623</v>
       </c>
       <c r="O18" t="n">
-        <v>0.1237719198915643</v>
+        <v>0.1143471070495774</v>
       </c>
       <c r="P18" t="n">
-        <v>106.5240222690069</v>
+        <v>106.8408298495534</v>
       </c>
       <c r="Q18" t="n">
-        <v>166.2489376875487</v>
+        <v>166.5657452680953</v>
       </c>
     </row>
     <row r="19">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9814714366625353</v>
+        <v>0.984064197084718</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9817128524753809</v>
+        <v>0.9842303506750327</v>
       </c>
       <c r="D19" t="n">
-        <v>0.981506566322263</v>
+        <v>0.9779799522216774</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9664752317982186</v>
+        <v>0.9723124045309635</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9760374021609567</v>
+        <v>0.9778077575100614</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01729560056559067</v>
+        <v>0.01487537252051222</v>
       </c>
       <c r="H19" t="n">
-        <v>0.01707024950122884</v>
+        <v>0.01472027543725313</v>
       </c>
       <c r="I19" t="n">
-        <v>0.01449013119070187</v>
+        <v>0.02028113434303094</v>
       </c>
       <c r="J19" t="n">
-        <v>0.01763008387775181</v>
+        <v>0.01241875405459115</v>
       </c>
       <c r="K19" t="n">
-        <v>0.01606010753422684</v>
+        <v>0.01634989527060059</v>
       </c>
       <c r="L19" t="n">
-        <v>0.01534957377774921</v>
+        <v>0.01378479346036376</v>
       </c>
       <c r="M19" t="n">
-        <v>0.1315127391760611</v>
+        <v>0.1219646363521501</v>
       </c>
       <c r="N19" t="n">
-        <v>1.017787420803966</v>
+        <v>1.015298370798671</v>
       </c>
       <c r="O19" t="n">
-        <v>0.1371115087516864</v>
+        <v>0.1271569234232639</v>
       </c>
       <c r="P19" t="n">
-        <v>106.1146062247716</v>
+        <v>106.4160965689365</v>
       </c>
       <c r="Q19" t="n">
-        <v>165.8395216433134</v>
+        <v>166.1410119874783</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9772562355878204</v>
+        <v>0.9802924184065439</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9776178608900199</v>
+        <v>0.9805933322237225</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9773518711555084</v>
+        <v>0.9726528175842298</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9595034696051836</v>
+        <v>0.9658287332661479</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9708736546911639</v>
+        <v>0.9725042202222995</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02123030574289425</v>
+        <v>0.01839616235463856</v>
       </c>
       <c r="H20" t="n">
-        <v>0.02089274439680713</v>
+        <v>0.01811527251489237</v>
       </c>
       <c r="I20" t="n">
-        <v>0.01774545300236317</v>
+        <v>0.02518758751393856</v>
       </c>
       <c r="J20" t="n">
-        <v>0.02129641056192601</v>
+        <v>0.01532688375832831</v>
       </c>
       <c r="K20" t="n">
-        <v>0.01952093178214459</v>
+        <v>0.02025721915902449</v>
       </c>
       <c r="L20" t="n">
-        <v>0.01699969802701405</v>
+        <v>0.01532963117185064</v>
       </c>
       <c r="M20" t="n">
-        <v>0.1457062309679797</v>
+        <v>0.135632453176364</v>
       </c>
       <c r="N20" t="n">
-        <v>1.021834013835693</v>
+        <v>1.018919278329718</v>
       </c>
       <c r="O20" t="n">
-        <v>0.1519092468737654</v>
+        <v>0.1414066075059658</v>
       </c>
       <c r="P20" t="n">
-        <v>105.7046512038309</v>
+        <v>105.9912264076063</v>
       </c>
       <c r="Q20" t="n">
-        <v>165.4295666223727</v>
+        <v>165.7161418261481</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9720728266805332</v>
+        <v>0.9756251147934649</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9725656092364289</v>
+        <v>0.9760782799951077</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9722286241050514</v>
+        <v>0.9660448130342724</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9509623574410814</v>
+        <v>0.9578016899163132</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9645280626547733</v>
+        <v>0.965930213007224</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02606879043249192</v>
+        <v>0.02275288540649707</v>
       </c>
       <c r="H21" t="n">
-        <v>0.02560879954721754</v>
+        <v>0.02232987558241692</v>
       </c>
       <c r="I21" t="n">
-        <v>0.02175966275795153</v>
+        <v>0.0312737608667948</v>
       </c>
       <c r="J21" t="n">
-        <v>0.02578803069651078</v>
+        <v>0.01892726419795946</v>
       </c>
       <c r="K21" t="n">
-        <v>0.02377384672723116</v>
+        <v>0.02510054806205836</v>
       </c>
       <c r="L21" t="n">
-        <v>0.018832490800976</v>
+        <v>0.01704767761690203</v>
       </c>
       <c r="M21" t="n">
-        <v>0.1614583241350285</v>
+        <v>0.1508405960161159</v>
       </c>
       <c r="N21" t="n">
-        <v>1.026810086386688</v>
+        <v>1.023399889798274</v>
       </c>
       <c r="O21" t="n">
-        <v>0.1683319392582636</v>
+        <v>0.1572621924716016</v>
       </c>
       <c r="P21" t="n">
-        <v>105.2940328980511</v>
+        <v>105.5661266211455</v>
       </c>
       <c r="Q21" t="n">
-        <v>165.018948316593</v>
+        <v>165.2910420396873</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9657419260893965</v>
+        <v>0.9698482499063618</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9663816917726019</v>
+        <v>0.9704734268776167</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9660015713732846</v>
+        <v>0.9578472047378759</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9405212304979004</v>
+        <v>0.9478608094634001</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9567918380351719</v>
+        <v>0.957780129596736</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03197840823989965</v>
+        <v>0.02814533520354609</v>
       </c>
       <c r="H22" t="n">
-        <v>0.03138121505709518</v>
+        <v>0.0275617599429771</v>
       </c>
       <c r="I22" t="n">
-        <v>0.02663873565415157</v>
+        <v>0.03882400766119236</v>
       </c>
       <c r="J22" t="n">
-        <v>0.03127883506773246</v>
+        <v>0.02338606054121287</v>
       </c>
       <c r="K22" t="n">
-        <v>0.02895878536094202</v>
+        <v>0.03110503410120261</v>
       </c>
       <c r="L22" t="n">
-        <v>0.02084989338593514</v>
+        <v>0.01895846175388348</v>
       </c>
       <c r="M22" t="n">
-        <v>0.1788250772120612</v>
+        <v>0.1677657152207986</v>
       </c>
       <c r="N22" t="n">
-        <v>1.032887750954179</v>
+        <v>1.028945680089893</v>
       </c>
       <c r="O22" t="n">
-        <v>0.1864380309679205</v>
+        <v>0.1749078490406544</v>
       </c>
       <c r="P22" t="n">
-        <v>104.8853886928534</v>
+        <v>105.140747300516</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.6103041113953</v>
+        <v>164.8656627190578</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9579020699342289</v>
+        <v>0.9626932061171481</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9587010197309903</v>
+        <v>0.9635128235878588</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9582243213067283</v>
+        <v>0.9476719657036166</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9276138887458646</v>
+        <v>0.935529318653365</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9471819160314546</v>
+        <v>0.9476661758126508</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03929656983083603</v>
+        <v>0.03482425451065324</v>
       </c>
       <c r="H23" t="n">
-        <v>0.03855078526540207</v>
+        <v>0.0340591775787937</v>
       </c>
       <c r="I23" t="n">
-        <v>0.03273243224565895</v>
+        <v>0.04819571256863674</v>
       </c>
       <c r="J23" t="n">
-        <v>0.03806657827769469</v>
+        <v>0.02891712053042492</v>
       </c>
       <c r="K23" t="n">
-        <v>0.03539950526167682</v>
+        <v>0.03855638045416616</v>
       </c>
       <c r="L23" t="n">
-        <v>0.02310669030288749</v>
+        <v>0.02108453117314511</v>
       </c>
       <c r="M23" t="n">
-        <v>0.1982336243699238</v>
+        <v>0.186612578650672</v>
       </c>
       <c r="N23" t="n">
-        <v>1.04041401286314</v>
+        <v>1.035814522127538</v>
       </c>
       <c r="O23" t="n">
-        <v>0.2066728401595245</v>
+        <v>0.1945570624651232</v>
       </c>
       <c r="P23" t="n">
-        <v>104.4732360911486</v>
+        <v>104.7148823325493</v>
       </c>
       <c r="Q23" t="n">
-        <v>164.1981515096904</v>
+        <v>164.4397977510912</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9482395718449124</v>
+        <v>0.9538223657908257</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9492053745029306</v>
+        <v>0.9548617596677131</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9484845664664743</v>
+        <v>0.9350311636502187</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9117598318451801</v>
+        <v>0.9202103890054157</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9352687888721529</v>
+        <v>0.9351015835708144</v>
       </c>
       <c r="G24" t="n">
-        <v>0.04831608766256596</v>
+        <v>0.04310479457038791</v>
       </c>
       <c r="H24" t="n">
-        <v>0.04741455327514303</v>
+        <v>0.04213456601043165</v>
       </c>
       <c r="I24" t="n">
-        <v>0.04036380713578828</v>
+        <v>0.05983827607392607</v>
       </c>
       <c r="J24" t="n">
-        <v>0.04640394697415789</v>
+        <v>0.03578814043860788</v>
       </c>
       <c r="K24" t="n">
-        <v>0.04338386924977366</v>
+        <v>0.04781320825626697</v>
       </c>
       <c r="L24" t="n">
-        <v>0.02561634899724419</v>
+        <v>0.02345160795440178</v>
       </c>
       <c r="M24" t="n">
-        <v>0.2198092074108043</v>
+        <v>0.2076169419156055</v>
       </c>
       <c r="N24" t="n">
-        <v>1.049690011028884</v>
+        <v>1.044330528840807</v>
       </c>
       <c r="O24" t="n">
-        <v>0.2291669404380693</v>
+        <v>0.216455624959271</v>
       </c>
       <c r="P24" t="n">
-        <v>104.0599813917636</v>
+        <v>104.2882420902541</v>
       </c>
       <c r="Q24" t="n">
-        <v>163.7848968103055</v>
+        <v>164.0131575087959</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9364898705782545</v>
+        <v>0.9427969461062701</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9376224038867884</v>
+        <v>0.9440846936325659</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9364947671878088</v>
+        <v>0.9192782379548611</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8925264064063488</v>
+        <v>0.9010806592382329</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9207146047538627</v>
+        <v>0.9194317459742605</v>
       </c>
       <c r="G25" t="n">
-        <v>0.05928391804271334</v>
+        <v>0.05339653988592986</v>
       </c>
       <c r="H25" t="n">
-        <v>0.05822674791166371</v>
+        <v>0.0521944840957162</v>
       </c>
       <c r="I25" t="n">
-        <v>0.049758155828708</v>
+        <v>0.07434720019342084</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0565184659382312</v>
+        <v>0.04436842359736429</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0531383108834696</v>
+        <v>0.05935779207771413</v>
       </c>
       <c r="L25" t="n">
-        <v>0.02837497074486891</v>
+        <v>0.02609159289359358</v>
       </c>
       <c r="M25" t="n">
-        <v>0.2434828906570508</v>
+        <v>0.2310769133555532</v>
       </c>
       <c r="N25" t="n">
-        <v>1.060969724244876</v>
+        <v>1.054914931737981</v>
       </c>
       <c r="O25" t="n">
-        <v>0.2538484613913887</v>
+        <v>0.2409143359522531</v>
       </c>
       <c r="P25" t="n">
-        <v>103.6508344126809</v>
+        <v>103.860018662518</v>
       </c>
       <c r="Q25" t="n">
-        <v>163.3757498312227</v>
+        <v>163.5849340810598</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9219117393646963</v>
+        <v>0.9290470920480028</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9232300209380522</v>
+        <v>0.9306176674059324</v>
       </c>
       <c r="D26" t="n">
-        <v>0.921120577219445</v>
+        <v>0.8995931003218474</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8689784684524946</v>
+        <v>0.8771407869895261</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9024894552628597</v>
+        <v>0.8998397303303163</v>
       </c>
       <c r="G26" t="n">
-        <v>0.07289196362456654</v>
+        <v>0.06623142510048405</v>
       </c>
       <c r="H26" t="n">
-        <v>0.07166140564171201</v>
+        <v>0.06476536194414723</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0618042708700995</v>
+        <v>0.09247781121276796</v>
       </c>
       <c r="J26" t="n">
-        <v>0.06890191088185608</v>
+        <v>0.05510620636681785</v>
       </c>
       <c r="K26" t="n">
-        <v>0.06535309087597779</v>
+        <v>0.0737919982677233</v>
       </c>
       <c r="L26" t="n">
-        <v>0.03141390609845359</v>
+        <v>0.02904336132336868</v>
       </c>
       <c r="M26" t="n">
-        <v>0.2699851174131021</v>
+        <v>0.2573546679205257</v>
       </c>
       <c r="N26" t="n">
-        <v>1.074964730209891</v>
+        <v>1.068114791633917</v>
       </c>
       <c r="O26" t="n">
-        <v>0.2814789428076176</v>
+        <v>0.2683107889315073</v>
       </c>
       <c r="P26" t="n">
-        <v>103.2375537687807</v>
+        <v>103.4292004585404</v>
       </c>
       <c r="Q26" t="n">
-        <v>162.9624691873225</v>
+        <v>163.1541158770822</v>
       </c>
     </row>
   </sheetData>
